--- a/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Manha Excel Diario de bordo.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - Manhã Julho 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
-    <sheet name="374 EXCEL AVANÇADO Sábado 1345" sheetId="1" r:id="rId1"/>
+    <sheet name="439 EXCEL AVANÇADO Int. Noite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -111,7 +111,7 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar, funções E e OU</t>
+    <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar</t>
   </si>
 </sst>
 </file>
@@ -377,11 +377,27 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,22 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,22 +745,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36">
@@ -777,18 +777,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
@@ -805,18 +805,18 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="18">
@@ -833,18 +833,18 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="18">
@@ -861,16 +861,16 @@
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="18">
@@ -887,16 +887,16 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="18">
@@ -913,57 +913,57 @@
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="18">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="18">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="14" customFormat="1" ht="18">
+      <c r="A9" s="10"/>
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="18">
       <c r="A10" s="1"/>
@@ -979,16 +979,16 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="18">
@@ -1005,16 +1005,16 @@
       <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="18">
@@ -1031,16 +1031,16 @@
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="18">
@@ -1057,16 +1057,16 @@
       <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="18">
@@ -1083,34 +1083,34 @@
       <c r="E14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Manha Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar</t>
+  </si>
+  <si>
+    <t>Graficos, Dashboards, Funções E e OU, Porcentagem, Auditoria de formulas (Precedentes, Dependentes, Avalição de Fórmula), Referencias Abosolutas, Mistas e Relativas, F7 Corretor ortografico, Ajustar Impressão</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,6 +402,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,9 +730,9 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:O5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -745,22 +748,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36">
@@ -777,18 +780,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
@@ -861,7 +864,9 @@
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -927,12 +932,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A8" s="10"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -947,12 +952,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A9" s="10"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1097,6 +1102,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F11:O11"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F4:O4"/>
@@ -1104,13 +1116,6 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
